--- a/aerolinea-proyecto/docs/Caso3.xlsx
+++ b/aerolinea-proyecto/docs/Caso3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wired\OneDrive\Documentos\SEXTO SEMESTRE\INFRACOMP\CASO-3\aerolinea-proyecto\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34ED334D-25C4-4DD4-A11E-BC3AF955E355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88026EE4-EF9F-4E26-95CB-6EC48966710F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="600" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F943E978-111F-416B-BE95-5B8562A654F8}"/>
   </bookViews>
@@ -625,6 +625,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -634,29 +651,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1320,593 +1320,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Tiempo de Verificación por Consulta</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Escenario 1'!$E$43:$E$74</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Escenario 1'!$F$43:$F$74</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>148.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>204.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>143.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>164.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>165.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>96.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>234.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>146.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>203.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>175.4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>128.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>171.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>96.7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>136.1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>104.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>196.1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>170.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>177.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>98.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>97.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>158.6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>344.7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>152.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>136.1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>208.4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>181.8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>110.4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>85.9</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>166.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>210.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0BE5-4017-9A0B-AF1D88F23D57}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1634790480"/>
-        <c:axId val="1621200256"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1634790480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Número de Consulta</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1621200256"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1621200256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tiempo (milisegundos)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1634790480"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Tiempo</a:t>
             </a:r>
             <a:r>
@@ -1980,7 +1393,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'AES vs RSA'!$B$3:$B$32</c:f>
+              <c:f>'AES vs RSA'!$B$7:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2104,7 +1517,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'AES vs RSA'!$C$3:$C$32</c:f>
+              <c:f>'AES vs RSA'!$C$7:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2431,7 +1844,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2750,7 +2163,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2846,7 +2259,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graficas!$A$24:$A$28</c:f>
+              <c:f>Graficas!$A$31:$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2869,7 +2282,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graficas!$B$24:$B$28</c:f>
+              <c:f>Graficas!$B$31:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3069,7 +2482,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3165,7 +2578,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graficas!$A$43:$A$47</c:f>
+              <c:f>Graficas!$A$50:$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3188,7 +2601,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graficas!$B$43:$B$47</c:f>
+              <c:f>Graficas!$B$50:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3388,7 +2801,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3483,7 +2896,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graficas!$A$66:$A$67</c:f>
+              <c:f>Graficas!$A$73:$A$74</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3497,7 +2910,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graficas!$B$66:$B$67</c:f>
+              <c:f>Graficas!$B$73:$B$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3688,7 +3101,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3794,7 +3207,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graficas!$A$83:$A$86</c:f>
+              <c:f>Graficas!$A$90:$A$93</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3814,7 +3227,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graficas!$B$83:$B$86</c:f>
+              <c:f>Graficas!$B$90:$B$93</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3857,7 +3270,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graficas!$A$83:$A$86</c:f>
+              <c:f>Graficas!$A$90:$A$93</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3877,7 +3290,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graficas!$C$83:$C$86</c:f>
+              <c:f>Graficas!$C$90:$C$93</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4385,46 +3798,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4942,7 +4315,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5445,7 +4818,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5948,509 +5321,6 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6955,7 +5825,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7458,7 +6328,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7961,7 +6831,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8469,15 +7339,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>17144</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>92392</xdr:rowOff>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>421005</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8502,40 +7372,65 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>777240</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>2858</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>160021</xdr:rowOff>
+      <xdr:colOff>78907</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96452B9-84C9-431E-9B27-E268150E4860}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C0A57E-A7EA-4863-88C8-D57EE859A27E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3867150" y="552450"/>
+          <a:ext cx="6270157" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8543,17 +7438,83 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{482465FA-614C-4433-818B-F26C07296184}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="215265"/>
+          <a:ext cx="6324600" cy="1449705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>954840</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>11364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>785395</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>133685</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8579,10 +7540,71 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>34156</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>41777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>135589</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>144416</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A8FAA69-945E-4106-ADDF-196720B364D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="34156" y="41777"/>
+          <a:ext cx="4797091" cy="837902"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8624,13 +7646,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>12382</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>2857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>29527</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8660,13 +7682,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>12382</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>12381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8696,13 +7718,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>789622</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>25717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>625792</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>50482</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8732,13 +7754,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>783907</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>10477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>21907</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8762,6 +7784,67 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>62866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>155904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1669F99B-1FFF-41F7-B0DF-61F58F479D8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="66675" y="3320416"/>
+          <a:ext cx="5162550" cy="1359863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9067,7 +8150,7 @@
   <dimension ref="A2:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9078,16 +8161,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
@@ -9139,10 +8222,6 @@
       <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
-        <f t="shared" ref="F6:F38" si="1">B6/1000</f>
-        <v>2726.9</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
@@ -9159,7 +8238,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F6:F38" si="1">B7/1000</f>
         <v>148.30000000000001</v>
       </c>
     </row>
@@ -10153,10 +9232,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1652B877-D647-4228-BC2A-687609A4B2E6}">
-  <dimension ref="A2:S71"/>
+  <dimension ref="A8:S79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10167,1485 +9246,1374 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+    <row r="8" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="F2" s="15" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="F10" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="K2" s="15" t="s">
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="K10" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="P2" s="15" t="s">
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="P10" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-    </row>
-    <row r="4" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+    </row>
+    <row r="12" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S12" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B13" s="7">
         <v>3045500</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C13" s="7">
         <v>1915900</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D13" s="7">
         <v>166000</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G13" s="9">
         <v>11769000</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H13" s="9">
         <v>4150600</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I13" s="9">
         <v>193400</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L13" s="9">
         <v>11769000</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M13" s="9">
         <v>4150600</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N13" s="9">
         <v>193400</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q13" s="9">
         <v>6274400</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R13" s="9">
         <v>2360000</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S13" s="9">
         <v>230300</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B14" s="7">
         <v>217500</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C14" s="7">
         <v>190600</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D14" s="7">
         <v>136100</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G14" s="9">
         <v>474200</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H14" s="9">
         <v>205300</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I14" s="9">
         <v>186200</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L14" s="9">
         <v>474200</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M14" s="9">
         <v>205300</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N14" s="9">
         <v>186200</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q14" s="9">
         <v>374400</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R14" s="9">
         <v>268800</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S14" s="9">
         <v>233600</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B15" s="7">
         <v>191500</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C15" s="7">
         <v>137900</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D15" s="7">
         <v>175100</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G15" s="9">
         <v>391500</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H15" s="9">
         <v>178900</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I15" s="9">
         <v>164500</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L15" s="9">
         <v>391500</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M15" s="9">
         <v>178900</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N15" s="9">
         <v>164500</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q15" s="9">
         <v>353000</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R15" s="9">
         <v>177500</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S15" s="9">
         <v>212800</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B16" s="7">
         <v>165500</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C16" s="7">
         <v>68500</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D16" s="7">
         <v>117500</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G16" s="9">
         <v>352100</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H16" s="9">
         <v>224700</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I16" s="9">
         <v>168800</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L16" s="9">
         <v>352100</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M16" s="9">
         <v>224700</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N16" s="9">
         <v>168800</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q16" s="9">
         <v>338600</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R16" s="9">
         <v>198000</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S16" s="9">
         <v>254100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="17">
-        <f>AVERAGE(B5:B8)</f>
+      <c r="B17" s="26">
+        <f>AVERAGE(B13:B16)</f>
         <v>905000</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="F9" s="9" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="F17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G17" s="9">
         <v>246800</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H17" s="9">
         <v>133700</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I17" s="9">
         <v>182800</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L17" s="9">
         <v>246800</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M17" s="9">
         <v>133700</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N17" s="9">
         <v>182800</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q17" s="9">
         <v>237100</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R17" s="9">
         <v>155600</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S17" s="9">
         <v>188300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="17">
-        <f>AVERAGE(C5:C8)</f>
+      <c r="B18" s="26">
+        <f>AVERAGE(C13:C16)</f>
         <v>578225</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="F10" s="9" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="F18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G18" s="9">
         <v>312800</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H18" s="9">
         <v>121400</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I18" s="9">
         <v>116400</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L18" s="9">
         <v>312800</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M18" s="9">
         <v>121400</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N18" s="9">
         <v>116400</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q18" s="9">
         <v>317200</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R18" s="9">
         <v>116600</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S18" s="9">
         <v>141400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+    <row r="19" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="17">
-        <f>AVERAGE(D5:D8)</f>
+      <c r="B19" s="26">
+        <f>AVERAGE(D13:D16)</f>
         <v>148675</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="9" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G19" s="9">
         <v>306300</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H19" s="9">
         <v>150100</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I19" s="9">
         <v>160400</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L19" s="9">
         <v>306300</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M19" s="9">
         <v>150100</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N19" s="9">
         <v>160400</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q19" s="9">
         <v>256500</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R19" s="9">
         <v>107000</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S19" s="9">
         <v>141800</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="F12" s="9" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="F20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G20" s="9">
         <v>241700</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H20" s="9">
         <v>166200</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I20" s="9">
         <v>119700</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L20" s="9">
         <v>241700</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M20" s="9">
         <v>166200</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N20" s="9">
         <v>119700</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q20" s="9">
         <v>464800</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R20" s="9">
         <v>136600</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S20" s="9">
         <v>156900</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="F13" s="9" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="F21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G21" s="9">
         <v>523600</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H21" s="9">
         <v>250800</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I21" s="9">
         <v>163900</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L21" s="9">
         <v>523600</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M21" s="9">
         <v>250800</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N21" s="9">
         <v>163900</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="P21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q21" s="9">
         <v>414800</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R21" s="9">
         <v>129500</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S21" s="9">
         <v>138600</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="F14" s="9" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="F22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G22" s="9">
         <v>383200</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H22" s="9">
         <v>255900</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I22" s="9">
         <v>156200</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L22" s="9">
         <v>383200</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M22" s="9">
         <v>255900</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N22" s="9">
         <v>156200</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q22" s="9">
         <v>608900</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R22" s="9">
         <v>117800</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S22" s="9">
         <v>140000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="F15" s="9" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="F23" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G23" s="9">
         <v>280000</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H23" s="9">
         <v>114600</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I23" s="9">
         <v>138100</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K23" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L23" s="9">
         <v>280000</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M23" s="9">
         <v>114600</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N23" s="9">
         <v>138100</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="P23" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q23" s="9">
         <v>326500</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R23" s="9">
         <v>119700</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S23" s="9">
         <v>200000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="F16" s="9" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="F24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G24" s="9">
         <v>527000</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H24" s="9">
         <v>183700</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I24" s="9">
         <v>228400</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L24" s="9">
         <v>527000</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M24" s="9">
         <v>183700</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N24" s="9">
         <v>228400</v>
       </c>
-      <c r="P16" s="9" t="s">
+      <c r="P24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q24" s="9">
         <v>380700</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R24" s="9">
         <v>112900</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S24" s="9">
         <v>128700</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="F17" s="9" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="F25" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G25" s="9">
         <v>273700</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H25" s="9">
         <v>97700</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I25" s="9">
         <v>122800</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K25" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L25" s="9">
         <v>273700</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M25" s="9">
         <v>97700</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N25" s="9">
         <v>122800</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="P25" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q25" s="9">
         <v>221600</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R25" s="9">
         <v>140700</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S25" s="9">
         <v>222300</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="F18" s="9" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="F26" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G26" s="9">
         <v>286900</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H26" s="9">
         <v>116900</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I26" s="9">
         <v>144800</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K26" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L26" s="9">
         <v>286900</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M26" s="9">
         <v>116900</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N26" s="9">
         <v>144800</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="P26" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q26" s="9">
         <v>288200</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R26" s="9">
         <v>131500</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S26" s="9">
         <v>147800</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="F19" s="9" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="F27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G27" s="9">
         <v>273600</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H27" s="9">
         <v>265800</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I27" s="9">
         <v>130100</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L27" s="9">
         <v>273600</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M27" s="9">
         <v>265800</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N27" s="9">
         <v>130100</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="P27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="Q19" s="9">
+      <c r="Q27" s="9">
         <v>310900</v>
       </c>
-      <c r="R19" s="9">
+      <c r="R27" s="9">
         <v>84700</v>
       </c>
-      <c r="S19" s="9">
+      <c r="S27" s="9">
         <v>204500</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F20" s="9" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G28" s="9">
         <v>205000</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H28" s="9">
         <v>116600</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I28" s="9">
         <v>206300</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L28" s="9">
         <v>205000</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M28" s="9">
         <v>116600</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N28" s="9">
         <v>206300</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="P28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q28" s="9">
         <v>290100</v>
       </c>
-      <c r="R20" s="9">
+      <c r="R28" s="9">
         <v>228400</v>
       </c>
-      <c r="S20" s="9">
+      <c r="S28" s="9">
         <v>198200</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="F21" s="10" t="s">
+    <row r="29" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F29" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="16">
-        <f>AVERAGE(G5:G20)</f>
+      <c r="G29" s="25">
+        <f>AVERAGE(G13:G28)</f>
         <v>1052962.5</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="K21" s="9" t="s">
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="K29" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L29" s="9">
         <v>325600</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M29" s="9">
         <v>192800</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N29" s="9">
         <v>254400</v>
       </c>
-      <c r="P21" s="9" t="s">
+      <c r="P29" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q29" s="9">
         <v>200700</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R29" s="9">
         <v>100300</v>
       </c>
-      <c r="S21" s="9">
+      <c r="S29" s="9">
         <v>135800</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="F22" s="10" t="s">
+    <row r="30" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F30" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="17">
-        <f>AVERAGE(H5:H20)</f>
+      <c r="G30" s="26">
+        <f>AVERAGE(H13:H28)</f>
         <v>420806.25</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="K22" s="9" t="s">
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="K30" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L30" s="9">
         <v>247700</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M30" s="9">
         <v>97500</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N30" s="9">
         <v>173600</v>
       </c>
-      <c r="P22" s="9" t="s">
+      <c r="P30" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="Q30" s="9">
         <v>352800</v>
       </c>
-      <c r="R22" s="9">
+      <c r="R30" s="9">
         <v>99300</v>
       </c>
-      <c r="S22" s="9">
+      <c r="S30" s="9">
         <v>161800</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="F23" s="11" t="s">
+    <row r="31" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F31" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="17">
-        <f>AVERAGE(I5:I20)</f>
+      <c r="G31" s="26">
+        <f>AVERAGE(I13:I28)</f>
         <v>161425</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="K23" s="9" t="s">
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="K31" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L31" s="9">
         <v>321400</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M31" s="9">
         <v>247700</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N31" s="9">
         <v>197500</v>
       </c>
-      <c r="P23" s="9" t="s">
+      <c r="P31" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="Q31" s="9">
         <v>229400</v>
       </c>
-      <c r="R23" s="9">
+      <c r="R31" s="9">
         <v>166400</v>
       </c>
-      <c r="S23" s="9">
+      <c r="S31" s="9">
         <v>105300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="K24" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L24" s="9">
-        <v>329300</v>
-      </c>
-      <c r="M24" s="9">
-        <v>95600</v>
-      </c>
-      <c r="N24" s="9">
-        <v>161200</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>216300</v>
-      </c>
-      <c r="R24" s="9">
-        <v>155800</v>
-      </c>
-      <c r="S24" s="9">
-        <v>109200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="K25" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="L25" s="9">
-        <v>267100</v>
-      </c>
-      <c r="M25" s="9">
-        <v>74200</v>
-      </c>
-      <c r="N25" s="9">
-        <v>158600</v>
-      </c>
-      <c r="P25" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>267100</v>
-      </c>
-      <c r="R25" s="9">
-        <v>77900</v>
-      </c>
-      <c r="S25" s="9">
-        <v>95400</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="K26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L26" s="9">
-        <v>3964900</v>
-      </c>
-      <c r="M26" s="9">
-        <v>196400</v>
-      </c>
-      <c r="N26" s="9">
-        <v>133300</v>
-      </c>
-      <c r="P26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>1164900</v>
-      </c>
-      <c r="R26" s="9">
-        <v>106900</v>
-      </c>
-      <c r="S26" s="9">
-        <v>101400</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="K27" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L27" s="9">
-        <v>219100</v>
-      </c>
-      <c r="M27" s="9">
-        <v>89200</v>
-      </c>
-      <c r="N27" s="9">
-        <v>96300</v>
-      </c>
-      <c r="P27" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>291300</v>
-      </c>
-      <c r="R27" s="9">
-        <v>87700</v>
-      </c>
-      <c r="S27" s="9">
-        <v>95800</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="K28" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="L28" s="9">
-        <v>218200</v>
-      </c>
-      <c r="M28" s="9">
-        <v>138900</v>
-      </c>
-      <c r="N28" s="9">
-        <v>94000</v>
-      </c>
-      <c r="P28" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>207600</v>
-      </c>
-      <c r="R28" s="9">
-        <v>151500</v>
-      </c>
-      <c r="S28" s="9">
-        <v>112700</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="K29" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L29" s="9">
-        <v>218700</v>
-      </c>
-      <c r="M29" s="9">
-        <v>88800</v>
-      </c>
-      <c r="N29" s="9">
-        <v>120900</v>
-      </c>
-      <c r="P29" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q29" s="9">
-        <v>199000</v>
-      </c>
-      <c r="R29" s="9">
-        <v>75300</v>
-      </c>
-      <c r="S29" s="9">
-        <v>97400</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="K30" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L30" s="9">
-        <v>187300</v>
-      </c>
-      <c r="M30" s="9">
-        <v>81700</v>
-      </c>
-      <c r="N30" s="9">
-        <v>96500</v>
-      </c>
-      <c r="P30" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q30" s="9">
-        <v>240900</v>
-      </c>
-      <c r="R30" s="9">
-        <v>136700</v>
-      </c>
-      <c r="S30" s="9">
-        <v>115300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="K31" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="L31" s="9">
-        <v>163300</v>
-      </c>
-      <c r="M31" s="9">
-        <v>76700</v>
-      </c>
-      <c r="N31" s="9">
-        <v>99100</v>
-      </c>
-      <c r="P31" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q31" s="9">
-        <v>165000</v>
-      </c>
-      <c r="R31" s="9">
-        <v>96800</v>
-      </c>
-      <c r="S31" s="9">
-        <v>112100</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K32" s="9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="L32" s="9">
-        <v>247800</v>
+        <v>329300</v>
       </c>
       <c r="M32" s="9">
-        <v>152900</v>
+        <v>95600</v>
       </c>
       <c r="N32" s="9">
-        <v>209900</v>
+        <v>161200</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="Q32" s="9">
-        <v>245300</v>
+        <v>216300</v>
       </c>
       <c r="R32" s="9">
-        <v>168700</v>
+        <v>155800</v>
       </c>
       <c r="S32" s="9">
-        <v>156500</v>
+        <v>109200</v>
       </c>
     </row>
     <row r="33" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K33" s="9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L33" s="9">
-        <v>267900</v>
+        <v>267100</v>
       </c>
       <c r="M33" s="9">
-        <v>151500</v>
+        <v>74200</v>
       </c>
       <c r="N33" s="9">
-        <v>123500</v>
+        <v>158600</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="Q33" s="9">
-        <v>183800</v>
+        <v>267100</v>
       </c>
       <c r="R33" s="9">
-        <v>128500</v>
+        <v>77900</v>
       </c>
       <c r="S33" s="9">
-        <v>136900</v>
+        <v>95400</v>
       </c>
     </row>
     <row r="34" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K34" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L34" s="9">
-        <v>165800</v>
+        <v>3964900</v>
       </c>
       <c r="M34" s="9">
-        <v>111400</v>
+        <v>196400</v>
       </c>
       <c r="N34" s="9">
-        <v>111200</v>
+        <v>133300</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Q34" s="9">
-        <v>211900</v>
+        <v>1164900</v>
       </c>
       <c r="R34" s="9">
-        <v>303000</v>
+        <v>106900</v>
       </c>
       <c r="S34" s="9">
-        <v>121400</v>
+        <v>101400</v>
       </c>
     </row>
     <row r="35" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K35" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L35" s="9">
-        <v>211800</v>
+        <v>219100</v>
       </c>
       <c r="M35" s="9">
-        <v>78100</v>
+        <v>89200</v>
       </c>
       <c r="N35" s="9">
-        <v>92200</v>
+        <v>96300</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q35" s="9">
-        <v>170400</v>
+        <v>291300</v>
       </c>
       <c r="R35" s="9">
-        <v>82300</v>
+        <v>87700</v>
       </c>
       <c r="S35" s="9">
-        <v>94400</v>
-      </c>
-    </row>
-    <row r="36" spans="11:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="K36" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="L36" s="16">
-        <f>AVERAGE(L5:L35)</f>
-        <v>780751.61290322582</v>
-      </c>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
+        <v>95800</v>
+      </c>
+    </row>
+    <row r="36" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K36" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L36" s="9">
+        <v>218200</v>
+      </c>
+      <c r="M36" s="9">
+        <v>138900</v>
+      </c>
+      <c r="N36" s="9">
+        <v>94000</v>
+      </c>
       <c r="P36" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Q36" s="9">
-        <v>199600</v>
+        <v>207600</v>
       </c>
       <c r="R36" s="9">
-        <v>91200</v>
+        <v>151500</v>
       </c>
       <c r="S36" s="9">
-        <v>99900</v>
-      </c>
-    </row>
-    <row r="37" spans="11:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="K37" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L37" s="16">
-        <f>AVERAGE(M5:M36)</f>
-        <v>277622.58064516127</v>
-      </c>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
+        <v>112700</v>
+      </c>
+    </row>
+    <row r="37" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K37" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L37" s="9">
+        <v>218700</v>
+      </c>
+      <c r="M37" s="9">
+        <v>88800</v>
+      </c>
+      <c r="N37" s="9">
+        <v>120900</v>
+      </c>
       <c r="P37" s="9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="Q37" s="9">
-        <v>185400</v>
+        <v>199000</v>
       </c>
       <c r="R37" s="9">
-        <v>94000</v>
+        <v>75300</v>
       </c>
       <c r="S37" s="9">
-        <v>108100</v>
-      </c>
-    </row>
-    <row r="38" spans="11:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="K38" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L38" s="16">
-        <f>AVERAGE(N5:N37)</f>
-        <v>151774.19354838709</v>
-      </c>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
+        <v>97400</v>
+      </c>
+    </row>
+    <row r="38" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K38" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L38" s="9">
+        <v>187300</v>
+      </c>
+      <c r="M38" s="9">
+        <v>81700</v>
+      </c>
+      <c r="N38" s="9">
+        <v>96500</v>
+      </c>
       <c r="P38" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q38" s="9">
-        <v>256100</v>
+        <v>240900</v>
       </c>
       <c r="R38" s="9">
-        <v>107100</v>
+        <v>136700</v>
       </c>
       <c r="S38" s="9">
-        <v>92900</v>
+        <v>115300</v>
       </c>
     </row>
     <row r="39" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K39" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L39" s="9">
+        <v>163300</v>
+      </c>
+      <c r="M39" s="9">
+        <v>76700</v>
+      </c>
+      <c r="N39" s="9">
+        <v>99100</v>
+      </c>
       <c r="P39" s="9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q39" s="9">
-        <v>272100</v>
+        <v>165000</v>
       </c>
       <c r="R39" s="9">
-        <v>83700</v>
+        <v>96800</v>
       </c>
       <c r="S39" s="9">
         <v>112100</v>
       </c>
     </row>
     <row r="40" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K40" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L40" s="9">
+        <v>247800</v>
+      </c>
+      <c r="M40" s="9">
+        <v>152900</v>
+      </c>
+      <c r="N40" s="9">
+        <v>209900</v>
+      </c>
       <c r="P40" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Q40" s="9">
-        <v>169900</v>
+        <v>245300</v>
       </c>
       <c r="R40" s="9">
-        <v>90400</v>
+        <v>168700</v>
       </c>
       <c r="S40" s="9">
-        <v>92500</v>
+        <v>156500</v>
       </c>
     </row>
     <row r="41" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K41" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L41" s="9">
+        <v>267900</v>
+      </c>
+      <c r="M41" s="9">
+        <v>151500</v>
+      </c>
+      <c r="N41" s="9">
+        <v>123500</v>
+      </c>
       <c r="P41" s="9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q41" s="9">
-        <v>171500</v>
+        <v>183800</v>
       </c>
       <c r="R41" s="9">
-        <v>112500</v>
+        <v>128500</v>
       </c>
       <c r="S41" s="9">
-        <v>382300</v>
+        <v>136900</v>
       </c>
     </row>
     <row r="42" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K42" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L42" s="9">
+        <v>165800</v>
+      </c>
+      <c r="M42" s="9">
+        <v>111400</v>
+      </c>
+      <c r="N42" s="9">
+        <v>111200</v>
+      </c>
       <c r="P42" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Q42" s="9">
-        <v>163400</v>
+        <v>211900</v>
       </c>
       <c r="R42" s="9">
-        <v>212200</v>
+        <v>303000</v>
       </c>
       <c r="S42" s="9">
-        <v>151400</v>
+        <v>121400</v>
       </c>
     </row>
     <row r="43" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K43" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L43" s="9">
+        <v>211800</v>
+      </c>
+      <c r="M43" s="9">
+        <v>78100</v>
+      </c>
+      <c r="N43" s="9">
+        <v>92200</v>
+      </c>
       <c r="P43" s="9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="Q43" s="9">
-        <v>123500</v>
+        <v>170400</v>
       </c>
       <c r="R43" s="9">
-        <v>79700</v>
+        <v>82300</v>
       </c>
       <c r="S43" s="9">
+        <v>94400</v>
+      </c>
+    </row>
+    <row r="44" spans="11:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L44" s="25">
+        <f>AVERAGE(L13:L43)</f>
+        <v>780751.61290322582</v>
+      </c>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="P44" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q44" s="9">
+        <v>199600</v>
+      </c>
+      <c r="R44" s="9">
+        <v>91200</v>
+      </c>
+      <c r="S44" s="9">
+        <v>99900</v>
+      </c>
+    </row>
+    <row r="45" spans="11:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K45" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L45" s="25">
+        <f>AVERAGE(M13:M44)</f>
+        <v>277622.58064516127</v>
+      </c>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="P45" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q45" s="9">
+        <v>185400</v>
+      </c>
+      <c r="R45" s="9">
+        <v>94000</v>
+      </c>
+      <c r="S45" s="9">
+        <v>108100</v>
+      </c>
+    </row>
+    <row r="46" spans="11:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K46" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L46" s="25">
+        <f>AVERAGE(N13:N45)</f>
+        <v>151774.19354838709</v>
+      </c>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="P46" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q46" s="9">
+        <v>256100</v>
+      </c>
+      <c r="R46" s="9">
         <v>107100</v>
       </c>
-    </row>
-    <row r="44" spans="11:19" x14ac:dyDescent="0.3">
-      <c r="P44" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q44" s="9">
-        <v>125700</v>
-      </c>
-      <c r="R44" s="9">
-        <v>74300</v>
-      </c>
-      <c r="S44" s="9">
-        <v>84400</v>
-      </c>
-    </row>
-    <row r="45" spans="11:19" x14ac:dyDescent="0.3">
-      <c r="P45" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q45" s="9">
-        <v>206100</v>
-      </c>
-      <c r="R45" s="9">
-        <v>162800</v>
-      </c>
-      <c r="S45" s="9">
-        <v>141900</v>
-      </c>
-    </row>
-    <row r="46" spans="11:19" x14ac:dyDescent="0.3">
-      <c r="P46" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q46" s="9">
-        <v>178700</v>
-      </c>
-      <c r="R46" s="9">
-        <v>78800</v>
-      </c>
       <c r="S46" s="9">
-        <v>111800</v>
+        <v>92900</v>
       </c>
     </row>
     <row r="47" spans="11:19" x14ac:dyDescent="0.3">
       <c r="P47" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="Q47" s="9">
-        <v>223100</v>
+        <v>272100</v>
       </c>
       <c r="R47" s="9">
-        <v>100900</v>
+        <v>83700</v>
       </c>
       <c r="S47" s="9">
-        <v>815900</v>
+        <v>112100</v>
       </c>
     </row>
     <row r="48" spans="11:19" x14ac:dyDescent="0.3">
       <c r="P48" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="Q48" s="9">
-        <v>347200</v>
+        <v>169900</v>
       </c>
       <c r="R48" s="9">
-        <v>104400</v>
+        <v>90400</v>
       </c>
       <c r="S48" s="9">
-        <v>84000</v>
+        <v>92500</v>
       </c>
     </row>
     <row r="49" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P49" s="9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="Q49" s="9">
-        <v>114300</v>
+        <v>171500</v>
       </c>
       <c r="R49" s="9">
-        <v>85200</v>
+        <v>112500</v>
       </c>
       <c r="S49" s="9">
-        <v>106000</v>
+        <v>382300</v>
       </c>
     </row>
     <row r="50" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P50" s="9" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="Q50" s="9">
-        <v>137200</v>
+        <v>163400</v>
       </c>
       <c r="R50" s="9">
-        <v>115500</v>
+        <v>212200</v>
       </c>
       <c r="S50" s="9">
-        <v>99200</v>
+        <v>151400</v>
       </c>
     </row>
     <row r="51" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P51" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="Q51" s="9">
-        <v>118800</v>
+        <v>123500</v>
       </c>
       <c r="R51" s="9">
-        <v>76000</v>
+        <v>79700</v>
       </c>
       <c r="S51" s="9">
-        <v>80600</v>
+        <v>107100</v>
       </c>
     </row>
     <row r="52" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P52" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="Q52" s="9">
-        <v>161300</v>
+        <v>125700</v>
       </c>
       <c r="R52" s="9">
-        <v>62900</v>
+        <v>74300</v>
       </c>
       <c r="S52" s="9">
         <v>84400</v>
@@ -11653,292 +10621,405 @@
     </row>
     <row r="53" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P53" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="Q53" s="9">
-        <v>116800</v>
+        <v>206100</v>
       </c>
       <c r="R53" s="9">
-        <v>95600</v>
+        <v>162800</v>
       </c>
       <c r="S53" s="9">
-        <v>81500</v>
+        <v>141900</v>
       </c>
     </row>
     <row r="54" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P54" s="9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="Q54" s="9">
-        <v>162600</v>
+        <v>178700</v>
       </c>
       <c r="R54" s="9">
-        <v>85100</v>
+        <v>78800</v>
       </c>
       <c r="S54" s="9">
-        <v>78600</v>
+        <v>111800</v>
       </c>
     </row>
     <row r="55" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P55" s="9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="Q55" s="9">
-        <v>171200</v>
+        <v>223100</v>
       </c>
       <c r="R55" s="9">
-        <v>95800</v>
+        <v>100900</v>
       </c>
       <c r="S55" s="9">
-        <v>126300</v>
+        <v>815900</v>
       </c>
     </row>
     <row r="56" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P56" s="9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="Q56" s="9">
-        <v>157500</v>
+        <v>347200</v>
       </c>
       <c r="R56" s="9">
-        <v>157400</v>
+        <v>104400</v>
       </c>
       <c r="S56" s="9">
-        <v>105500</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="57" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P57" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Q57" s="9">
-        <v>6274400</v>
+        <v>114300</v>
       </c>
       <c r="R57" s="9">
-        <v>2360000</v>
+        <v>85200</v>
       </c>
       <c r="S57" s="9">
-        <v>230300</v>
+        <v>106000</v>
       </c>
     </row>
     <row r="58" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P58" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="Q58" s="9">
-        <v>374400</v>
+        <v>137200</v>
       </c>
       <c r="R58" s="9">
-        <v>268800</v>
+        <v>115500</v>
       </c>
       <c r="S58" s="9">
-        <v>233600</v>
+        <v>99200</v>
       </c>
     </row>
     <row r="59" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P59" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="Q59" s="9">
-        <v>353000</v>
+        <v>118800</v>
       </c>
       <c r="R59" s="9">
-        <v>177500</v>
+        <v>76000</v>
       </c>
       <c r="S59" s="9">
-        <v>212800</v>
+        <v>80600</v>
       </c>
     </row>
     <row r="60" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P60" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Q60" s="9">
-        <v>338600</v>
+        <v>161300</v>
       </c>
       <c r="R60" s="9">
-        <v>198000</v>
+        <v>62900</v>
       </c>
       <c r="S60" s="9">
-        <v>254100</v>
+        <v>84400</v>
       </c>
     </row>
     <row r="61" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P61" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="Q61" s="9">
-        <v>237100</v>
+        <v>116800</v>
       </c>
       <c r="R61" s="9">
-        <v>155600</v>
+        <v>95600</v>
       </c>
       <c r="S61" s="9">
-        <v>188300</v>
+        <v>81500</v>
       </c>
     </row>
     <row r="62" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P62" s="9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Q62" s="9">
-        <v>317200</v>
+        <v>162600</v>
       </c>
       <c r="R62" s="9">
-        <v>116600</v>
+        <v>85100</v>
       </c>
       <c r="S62" s="9">
-        <v>141400</v>
+        <v>78600</v>
       </c>
     </row>
     <row r="63" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P63" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Q63" s="9">
-        <v>256500</v>
+        <v>171200</v>
       </c>
       <c r="R63" s="9">
-        <v>107000</v>
+        <v>95800</v>
       </c>
       <c r="S63" s="9">
-        <v>141800</v>
+        <v>126300</v>
       </c>
     </row>
     <row r="64" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P64" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Q64" s="9">
-        <v>464800</v>
+        <v>157500</v>
       </c>
       <c r="R64" s="9">
-        <v>136600</v>
+        <v>157400</v>
       </c>
       <c r="S64" s="9">
-        <v>156900</v>
+        <v>105500</v>
       </c>
     </row>
     <row r="65" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P65" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Q65" s="9">
-        <v>414800</v>
+        <v>6274400</v>
       </c>
       <c r="R65" s="9">
-        <v>129500</v>
+        <v>2360000</v>
       </c>
       <c r="S65" s="9">
-        <v>138600</v>
+        <v>230300</v>
       </c>
     </row>
     <row r="66" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P66" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Q66" s="9">
-        <v>608900</v>
+        <v>374400</v>
       </c>
       <c r="R66" s="9">
-        <v>117800</v>
+        <v>268800</v>
       </c>
       <c r="S66" s="9">
-        <v>140000</v>
+        <v>233600</v>
       </c>
     </row>
     <row r="67" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P67" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q67" s="9">
-        <v>326500</v>
+        <v>353000</v>
       </c>
       <c r="R67" s="9">
-        <v>119700</v>
+        <v>177500</v>
       </c>
       <c r="S67" s="9">
-        <v>200000</v>
+        <v>212800</v>
       </c>
     </row>
     <row r="68" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P68" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q68" s="9">
+        <v>338600</v>
+      </c>
+      <c r="R68" s="9">
+        <v>198000</v>
+      </c>
+      <c r="S68" s="9">
+        <v>254100</v>
+      </c>
+    </row>
+    <row r="69" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P69" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q69" s="9">
+        <v>237100</v>
+      </c>
+      <c r="R69" s="9">
+        <v>155600</v>
+      </c>
+      <c r="S69" s="9">
+        <v>188300</v>
+      </c>
+    </row>
+    <row r="70" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P70" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q70" s="9">
+        <v>317200</v>
+      </c>
+      <c r="R70" s="9">
+        <v>116600</v>
+      </c>
+      <c r="S70" s="9">
+        <v>141400</v>
+      </c>
+    </row>
+    <row r="71" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P71" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q71" s="9">
+        <v>256500</v>
+      </c>
+      <c r="R71" s="9">
+        <v>107000</v>
+      </c>
+      <c r="S71" s="9">
+        <v>141800</v>
+      </c>
+    </row>
+    <row r="72" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P72" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q72" s="9">
+        <v>464800</v>
+      </c>
+      <c r="R72" s="9">
+        <v>136600</v>
+      </c>
+      <c r="S72" s="9">
+        <v>156900</v>
+      </c>
+    </row>
+    <row r="73" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P73" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q73" s="9">
+        <v>414800</v>
+      </c>
+      <c r="R73" s="9">
+        <v>129500</v>
+      </c>
+      <c r="S73" s="9">
+        <v>138600</v>
+      </c>
+    </row>
+    <row r="74" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P74" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q74" s="9">
+        <v>608900</v>
+      </c>
+      <c r="R74" s="9">
+        <v>117800</v>
+      </c>
+      <c r="S74" s="9">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="75" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P75" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q75" s="9">
+        <v>326500</v>
+      </c>
+      <c r="R75" s="9">
+        <v>119700</v>
+      </c>
+      <c r="S75" s="9">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="76" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P76" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="Q68" s="9">
+      <c r="Q76" s="9">
         <v>380700</v>
       </c>
-      <c r="R68" s="9">
+      <c r="R76" s="9">
         <v>112900</v>
       </c>
-      <c r="S68" s="9">
+      <c r="S76" s="9">
         <v>128700</v>
       </c>
     </row>
-    <row r="69" spans="16:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="P69" s="10" t="s">
+    <row r="77" spans="16:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P77" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="Q69" s="16">
-        <f>AVERAGE(Q5:Q68)</f>
+      <c r="Q77" s="25">
+        <f>AVERAGE(Q13:Q76)</f>
         <v>467390.625</v>
       </c>
-      <c r="R69" s="16"/>
-      <c r="S69" s="16"/>
-    </row>
-    <row r="70" spans="16:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="P70" s="10" t="s">
+      <c r="R77" s="25"/>
+      <c r="S77" s="25"/>
+    </row>
+    <row r="78" spans="16:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P78" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="Q70" s="16">
-        <f>AVERAGE(R5:R68)</f>
+      <c r="Q78" s="25">
+        <f>AVERAGE(R13:R76)</f>
         <v>198248.4375</v>
       </c>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
-    </row>
-    <row r="71" spans="16:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="P71" s="11" t="s">
+      <c r="R78" s="25"/>
+      <c r="S78" s="25"/>
+    </row>
+    <row r="79" spans="16:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P79" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q71" s="16">
-        <f>AVERAGE(S5:S68)</f>
+      <c r="Q79" s="25">
+        <f>AVERAGE(S13:S76)</f>
         <v>156306.25</v>
       </c>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
+      <c r="R79" s="25"/>
+      <c r="S79" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="Q71:S71"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="K2:N3"/>
-    <mergeCell ref="P2:S3"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="Q77:S77"/>
+    <mergeCell ref="Q78:S78"/>
+    <mergeCell ref="Q79:S79"/>
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="F10:I11"/>
+    <mergeCell ref="K10:N11"/>
+    <mergeCell ref="P10:S11"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2128FC21-A62D-4B09-99E1-1AE4FCBAF21A}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A5:M36"/>
   <sheetViews>
     <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11948,511 +11029,427 @@
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-    </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B6" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="22" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9">
-        <v>88400</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1872900</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="21">
-        <f>AVERAGE(B3:B32)</f>
-        <v>70253.333333333328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9">
-        <v>61700</v>
-      </c>
-      <c r="C4" s="9">
-        <v>129600</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="12">
-        <f>AVERAGE(C3:C32)</f>
-        <v>138736.66666666666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9">
-        <v>59100</v>
-      </c>
-      <c r="C5" s="9">
-        <v>124500</v>
-      </c>
-      <c r="D5" s="25">
-        <f>$F$3</f>
-        <v>70253.333333333328</v>
-      </c>
-      <c r="E5" s="26">
-        <f>$F$4</f>
-        <v>138736.66666666666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9">
-        <v>60100</v>
-      </c>
-      <c r="C6" s="9">
-        <v>73500</v>
-      </c>
-      <c r="D6" s="25">
-        <f>$F$3</f>
-        <v>70253.333333333328</v>
-      </c>
-      <c r="E6" s="26">
-        <f>$F$4</f>
-        <v>138736.66666666666</v>
-      </c>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" s="9">
-        <v>103400</v>
+        <v>88400</v>
       </c>
       <c r="C7" s="9">
-        <v>79200</v>
-      </c>
-      <c r="D7" s="25">
-        <f>$F$3</f>
+        <v>1872900</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="18">
+        <f>AVERAGE(B7:B36)</f>
         <v>70253.333333333328</v>
-      </c>
-      <c r="E7" s="26">
-        <f>$F$4</f>
-        <v>138736.66666666666</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" s="9">
-        <v>72800</v>
+        <v>61700</v>
       </c>
       <c r="C8" s="9">
-        <v>106100</v>
-      </c>
-      <c r="D8" s="25">
-        <f>$F$3</f>
-        <v>70253.333333333328</v>
-      </c>
-      <c r="E8" s="26">
-        <f>$F$4</f>
+        <v>129600</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="12">
+        <f>AVERAGE(C7:C36)</f>
         <v>138736.66666666666</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="9">
-        <v>72200</v>
+        <v>59100</v>
       </c>
       <c r="C9" s="9">
-        <v>68500</v>
-      </c>
-      <c r="D9" s="25">
-        <f>$F$3</f>
+        <v>124500</v>
+      </c>
+      <c r="D9" s="20">
+        <f t="shared" ref="D9:D32" si="0">$F$7</f>
         <v>70253.333333333328</v>
       </c>
-      <c r="E9" s="26">
-        <f>$F$4</f>
+      <c r="E9" s="21">
+        <f t="shared" ref="E9:E32" si="1">$F$8</f>
         <v>138736.66666666666</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10" s="9">
-        <v>75600</v>
+        <v>60100</v>
       </c>
       <c r="C10" s="9">
-        <v>115900</v>
-      </c>
-      <c r="D10" s="25">
-        <f>$F$3</f>
+        <v>73500</v>
+      </c>
+      <c r="D10" s="20">
+        <f t="shared" si="0"/>
         <v>70253.333333333328</v>
       </c>
-      <c r="E10" s="26">
-        <f>$F$4</f>
+      <c r="E10" s="21">
+        <f t="shared" si="1"/>
         <v>138736.66666666666</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" s="9">
-        <v>81300</v>
+        <v>103400</v>
       </c>
       <c r="C11" s="9">
-        <v>97200</v>
-      </c>
-      <c r="D11" s="25">
-        <f>$F$3</f>
+        <v>79200</v>
+      </c>
+      <c r="D11" s="20">
+        <f t="shared" si="0"/>
         <v>70253.333333333328</v>
       </c>
-      <c r="E11" s="26">
-        <f>$F$4</f>
+      <c r="E11" s="21">
+        <f t="shared" si="1"/>
         <v>138736.66666666666</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12" s="9">
-        <v>76100</v>
+        <v>72800</v>
       </c>
       <c r="C12" s="9">
-        <v>86100</v>
-      </c>
-      <c r="D12" s="25">
-        <f>$F$3</f>
+        <v>106100</v>
+      </c>
+      <c r="D12" s="20">
+        <f t="shared" si="0"/>
         <v>70253.333333333328</v>
       </c>
-      <c r="E12" s="26">
-        <f>$F$4</f>
+      <c r="E12" s="21">
+        <f t="shared" si="1"/>
         <v>138736.66666666666</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B13" s="9">
-        <v>106600</v>
+        <v>72200</v>
       </c>
       <c r="C13" s="9">
-        <v>56900</v>
-      </c>
-      <c r="D13" s="25">
-        <f>$F$3</f>
+        <v>68500</v>
+      </c>
+      <c r="D13" s="20">
+        <f t="shared" si="0"/>
         <v>70253.333333333328</v>
       </c>
-      <c r="E13" s="26">
-        <f>$F$4</f>
+      <c r="E13" s="21">
+        <f t="shared" si="1"/>
         <v>138736.66666666666</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B14" s="9">
-        <v>65600</v>
+        <v>75600</v>
       </c>
       <c r="C14" s="9">
-        <v>57900</v>
-      </c>
-      <c r="D14" s="25">
-        <f>$F$3</f>
+        <v>115900</v>
+      </c>
+      <c r="D14" s="20">
+        <f t="shared" si="0"/>
         <v>70253.333333333328</v>
       </c>
-      <c r="E14" s="26">
-        <f>$F$4</f>
+      <c r="E14" s="21">
+        <f t="shared" si="1"/>
         <v>138736.66666666666</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B15" s="9">
-        <v>91500</v>
+        <v>81300</v>
       </c>
       <c r="C15" s="9">
-        <v>43200</v>
-      </c>
-      <c r="D15" s="25">
-        <f>$F$3</f>
+        <v>97200</v>
+      </c>
+      <c r="D15" s="20">
+        <f t="shared" si="0"/>
         <v>70253.333333333328</v>
       </c>
-      <c r="E15" s="26">
-        <f>$F$4</f>
+      <c r="E15" s="21">
+        <f t="shared" si="1"/>
         <v>138736.66666666666</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B16" s="9">
-        <v>77200</v>
+        <v>76100</v>
       </c>
       <c r="C16" s="9">
-        <v>105200</v>
-      </c>
-      <c r="D16" s="25">
-        <f>$F$3</f>
+        <v>86100</v>
+      </c>
+      <c r="D16" s="20">
+        <f t="shared" si="0"/>
         <v>70253.333333333328</v>
       </c>
-      <c r="E16" s="26">
-        <f>$F$4</f>
+      <c r="E16" s="21">
+        <f t="shared" si="1"/>
         <v>138736.66666666666</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B17" s="9">
-        <v>43600</v>
+        <v>106600</v>
       </c>
       <c r="C17" s="9">
-        <v>55000</v>
-      </c>
-      <c r="D17" s="25">
-        <f>$F$3</f>
+        <v>56900</v>
+      </c>
+      <c r="D17" s="20">
+        <f t="shared" si="0"/>
         <v>70253.333333333328</v>
       </c>
-      <c r="E17" s="26">
-        <f>$F$4</f>
+      <c r="E17" s="21">
+        <f t="shared" si="1"/>
         <v>138736.66666666666</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B18" s="9">
-        <v>62600</v>
+        <v>65600</v>
       </c>
       <c r="C18" s="9">
-        <v>60100</v>
-      </c>
-      <c r="D18" s="25">
-        <f>$F$3</f>
+        <v>57900</v>
+      </c>
+      <c r="D18" s="20">
+        <f t="shared" si="0"/>
         <v>70253.333333333328</v>
       </c>
-      <c r="E18" s="26">
-        <f>$F$4</f>
+      <c r="E18" s="21">
+        <f t="shared" si="1"/>
         <v>138736.66666666666</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B19" s="9">
-        <v>93800</v>
+        <v>91500</v>
       </c>
       <c r="C19" s="9">
-        <v>93000</v>
-      </c>
-      <c r="D19" s="25">
-        <f>$F$3</f>
+        <v>43200</v>
+      </c>
+      <c r="D19" s="20">
+        <f t="shared" si="0"/>
         <v>70253.333333333328</v>
       </c>
-      <c r="E19" s="26">
-        <f>$F$4</f>
+      <c r="E19" s="21">
+        <f t="shared" si="1"/>
         <v>138736.66666666666</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B20" s="9">
-        <v>50600</v>
+        <v>77200</v>
       </c>
       <c r="C20" s="9">
-        <v>46600</v>
-      </c>
-      <c r="D20" s="25">
-        <f>$F$3</f>
+        <v>105200</v>
+      </c>
+      <c r="D20" s="20">
+        <f t="shared" si="0"/>
         <v>70253.333333333328</v>
       </c>
-      <c r="E20" s="26">
-        <f>$F$4</f>
+      <c r="E20" s="21">
+        <f t="shared" si="1"/>
         <v>138736.66666666666</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B21" s="9">
-        <v>62200</v>
+        <v>43600</v>
       </c>
       <c r="C21" s="9">
-        <v>80000</v>
-      </c>
-      <c r="D21" s="25">
-        <f>$F$3</f>
+        <v>55000</v>
+      </c>
+      <c r="D21" s="20">
+        <f t="shared" si="0"/>
         <v>70253.333333333328</v>
       </c>
-      <c r="E21" s="26">
-        <f>$F$4</f>
+      <c r="E21" s="21">
+        <f t="shared" si="1"/>
         <v>138736.66666666666</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B22" s="9">
-        <v>62300</v>
+        <v>62600</v>
       </c>
       <c r="C22" s="9">
-        <v>66200</v>
-      </c>
-      <c r="D22" s="25">
-        <f>$F$3</f>
+        <v>60100</v>
+      </c>
+      <c r="D22" s="20">
+        <f t="shared" si="0"/>
         <v>70253.333333333328</v>
       </c>
-      <c r="E22" s="26">
-        <f>$F$4</f>
+      <c r="E22" s="21">
+        <f t="shared" si="1"/>
         <v>138736.66666666666</v>
       </c>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
+      <c r="M22" s="15"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B23" s="9">
-        <v>86700</v>
+        <v>93800</v>
       </c>
       <c r="C23" s="9">
-        <v>71100</v>
-      </c>
-      <c r="D23" s="25">
-        <f>$F$3</f>
+        <v>93000</v>
+      </c>
+      <c r="D23" s="20">
+        <f t="shared" si="0"/>
         <v>70253.333333333328</v>
       </c>
-      <c r="E23" s="26">
-        <f>$F$4</f>
+      <c r="E23" s="21">
+        <f t="shared" si="1"/>
         <v>138736.66666666666</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B24" s="9">
-        <v>111900</v>
+        <v>50600</v>
       </c>
       <c r="C24" s="9">
-        <v>99300</v>
-      </c>
-      <c r="D24" s="25">
-        <f>$F$3</f>
+        <v>46600</v>
+      </c>
+      <c r="D24" s="20">
+        <f t="shared" si="0"/>
         <v>70253.333333333328</v>
       </c>
-      <c r="E24" s="26">
-        <f>$F$4</f>
+      <c r="E24" s="21">
+        <f t="shared" si="1"/>
         <v>138736.66666666666</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B25" s="9">
-        <v>58100</v>
+        <v>62200</v>
       </c>
       <c r="C25" s="9">
-        <v>57700</v>
-      </c>
-      <c r="D25" s="25">
-        <f>$F$3</f>
+        <v>80000</v>
+      </c>
+      <c r="D25" s="20">
+        <f t="shared" si="0"/>
         <v>70253.333333333328</v>
       </c>
-      <c r="E25" s="26">
-        <f>$F$4</f>
+      <c r="E25" s="21">
+        <f t="shared" si="1"/>
         <v>138736.66666666666</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B26" s="9">
-        <v>51100</v>
+        <v>62300</v>
       </c>
       <c r="C26" s="9">
-        <v>77300</v>
-      </c>
-      <c r="D26" s="25">
-        <f>$F$3</f>
+        <v>66200</v>
+      </c>
+      <c r="D26" s="20">
+        <f t="shared" si="0"/>
         <v>70253.333333333328</v>
       </c>
-      <c r="E26" s="26">
-        <f>$F$4</f>
+      <c r="E26" s="21">
+        <f t="shared" si="1"/>
         <v>138736.66666666666</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B27" s="9">
-        <v>74800</v>
+        <v>86700</v>
       </c>
       <c r="C27" s="9">
-        <v>78700</v>
-      </c>
-      <c r="D27" s="25">
-        <f>$F$3</f>
+        <v>71100</v>
+      </c>
+      <c r="D27" s="20">
+        <f t="shared" si="0"/>
         <v>70253.333333333328</v>
       </c>
-      <c r="E27" s="26">
-        <f>$F$4</f>
+      <c r="E27" s="21">
+        <f t="shared" si="1"/>
         <v>138736.66666666666</v>
       </c>
       <c r="K27" s="3"/>
@@ -12461,20 +11458,20 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B28" s="9">
-        <v>52000</v>
+        <v>111900</v>
       </c>
       <c r="C28" s="9">
-        <v>93400</v>
-      </c>
-      <c r="D28" s="25">
-        <f>$F$3</f>
+        <v>99300</v>
+      </c>
+      <c r="D28" s="20">
+        <f t="shared" si="0"/>
         <v>70253.333333333328</v>
       </c>
-      <c r="E28" s="26">
-        <f>$F$4</f>
+      <c r="E28" s="21">
+        <f t="shared" si="1"/>
         <v>138736.66666666666</v>
       </c>
       <c r="K28" s="3"/>
@@ -12483,51 +11480,135 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B29" s="9">
-        <v>70400</v>
+        <v>58100</v>
       </c>
       <c r="C29" s="9">
-        <v>77900</v>
-      </c>
+        <v>57700</v>
+      </c>
+      <c r="D29" s="20">
+        <f t="shared" si="0"/>
+        <v>70253.333333333328</v>
+      </c>
+      <c r="E29" s="21">
+        <f t="shared" si="1"/>
+        <v>138736.66666666666</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B30" s="9">
-        <v>49600</v>
+        <v>51100</v>
       </c>
       <c r="C30" s="9">
-        <v>80400</v>
-      </c>
+        <v>77300</v>
+      </c>
+      <c r="D30" s="20">
+        <f t="shared" si="0"/>
+        <v>70253.333333333328</v>
+      </c>
+      <c r="E30" s="21">
+        <f t="shared" si="1"/>
+        <v>138736.66666666666</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B31" s="9">
-        <v>36500</v>
+        <v>74800</v>
       </c>
       <c r="C31" s="9">
-        <v>53500</v>
-      </c>
+        <v>78700</v>
+      </c>
+      <c r="D31" s="20">
+        <f t="shared" si="0"/>
+        <v>70253.333333333328</v>
+      </c>
+      <c r="E31" s="21">
+        <f t="shared" si="1"/>
+        <v>138736.66666666666</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
+        <v>26</v>
+      </c>
+      <c r="B32" s="9">
+        <v>52000</v>
+      </c>
+      <c r="C32" s="9">
+        <v>93400</v>
+      </c>
+      <c r="D32" s="20">
+        <f t="shared" si="0"/>
+        <v>70253.333333333328</v>
+      </c>
+      <c r="E32" s="21">
+        <f t="shared" si="1"/>
+        <v>138736.66666666666</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>27</v>
+      </c>
+      <c r="B33" s="9">
+        <v>70400</v>
+      </c>
+      <c r="C33" s="9">
+        <v>77900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>28</v>
+      </c>
+      <c r="B34" s="9">
+        <v>49600</v>
+      </c>
+      <c r="C34" s="9">
+        <v>80400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>29</v>
+      </c>
+      <c r="B35" s="9">
+        <v>36500</v>
+      </c>
+      <c r="C35" s="9">
+        <v>53500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B36" s="9">
         <v>49800</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C36" s="9">
         <v>55200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12537,10 +11618,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6292505C-9C9B-49A2-9077-695645511339}">
-  <dimension ref="A2:C86"/>
+  <dimension ref="A2:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12550,11 +11631,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
@@ -12568,7 +11649,7 @@
       <c r="A5" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="18">
         <v>2726900</v>
       </c>
     </row>
@@ -12576,8 +11657,8 @@
       <c r="A6" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="21">
-        <f>'Escenario 2'!B10</f>
+      <c r="B6" s="18">
+        <f>'Escenario 2'!B18</f>
         <v>578225</v>
       </c>
     </row>
@@ -12585,8 +11666,8 @@
       <c r="A7" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="21">
-        <f>'Escenario 2'!G22</f>
+      <c r="B7" s="18">
+        <f>'Escenario 2'!G30</f>
         <v>420806.25</v>
       </c>
     </row>
@@ -12594,8 +11675,8 @@
       <c r="A8" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="21">
-        <f>'Escenario 2'!L37</f>
+      <c r="B8" s="18">
+        <f>'Escenario 2'!L45</f>
         <v>277622.58064516127</v>
       </c>
     </row>
@@ -12603,233 +11684,233 @@
       <c r="A9" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="21">
-        <f>'Escenario 2'!Q70</f>
+      <c r="B9" s="18">
+        <f>'Escenario 2'!Q78</f>
         <v>198248.4375</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B30" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B31" s="18">
         <f>'Escenario 1'!B5</f>
         <v>516900</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B25" s="21">
-        <f>'Escenario 2'!B11</f>
+      <c r="B32" s="18">
+        <f>'Escenario 2'!B19</f>
         <v>148675</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="21">
-        <f>'Escenario 2'!G23</f>
+      <c r="B33" s="18">
+        <f>'Escenario 2'!G31</f>
         <v>161425</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="21">
-        <f>'Escenario 2'!L38</f>
+      <c r="B34" s="18">
+        <f>'Escenario 2'!L46</f>
         <v>151774.19354838709</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B28" s="21">
-        <f>'Escenario 2'!Q71</f>
+      <c r="B35" s="18">
+        <f>'Escenario 2'!Q79</f>
         <v>156306.25</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="27" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B49" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B50" s="18">
         <f>'Escenario 1'!B39</f>
         <v>161793.75</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="21">
-        <f>'Escenario 2'!B11</f>
+      <c r="B51" s="18">
+        <f>'Escenario 2'!B19</f>
         <v>148675</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B45" s="21">
-        <f>'Escenario 2'!G23</f>
+      <c r="B52" s="18">
+        <f>'Escenario 2'!G31</f>
         <v>161425</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B46" s="21">
-        <f>'Escenario 2'!L38</f>
+      <c r="B53" s="18">
+        <f>'Escenario 2'!L46</f>
         <v>151774.19354838709</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B47" s="21">
-        <f>'Escenario 2'!Q71</f>
+      <c r="B54" s="18">
+        <f>'Escenario 2'!Q79</f>
         <v>156306.25</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="27" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="27"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="s">
+      <c r="B69" s="29"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B72" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="12" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="21">
+      <c r="B73" s="18">
         <f>2157700/34</f>
         <v>63461.76470588235</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="12" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B67" s="12">
+      <c r="B74" s="12">
         <f>4089401/34</f>
         <v>120276.5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="30" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="B81" s="30"/>
-      <c r="C81" s="30"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="s">
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B89" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C89" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="12" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B83" s="28">
+      <c r="B90" s="22">
         <f>354500/4</f>
         <v>88625</v>
       </c>
-      <c r="C83" s="12">
+      <c r="C90" s="12">
         <f>1090799/4</f>
         <v>272699.75</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="12" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B84" s="20">
+      <c r="B91" s="17">
         <f>1060501/16</f>
         <v>66281.3125</v>
       </c>
-      <c r="C84" s="20">
+      <c r="C91" s="17">
         <f>1354303/16</f>
         <v>84643.9375</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="12" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B85" s="20">
+      <c r="B92" s="17">
         <f>1949500/32</f>
         <v>60921.875</v>
       </c>
-      <c r="C85" s="20">
+      <c r="C92" s="17">
         <f>2737398/32</f>
         <v>85543.6875</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="12" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B86" s="20">
+      <c r="B93" s="17">
         <f>2961097/64</f>
         <v>46267.140625</v>
       </c>
-      <c r="C86" s="20">
+      <c r="C93" s="17">
         <f>4275499/64</f>
         <v>66804.671875</v>
       </c>
@@ -12837,10 +11918,10 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A88:C88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13070,20 +12151,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="5efcfc4f-29bb-494d-9a76-b0329a59025e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="5efcfc4f-29bb-494d-9a76-b0329a59025e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13106,14 +12187,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17987EFD-1A28-487D-B7D2-77BF0D53CF78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34275123-1973-4C68-BADE-DFD2FCEC8322}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -13128,4 +12201,12 @@
     <ds:schemaRef ds:uri="5efcfc4f-29bb-494d-9a76-b0329a59025e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17987EFD-1A28-487D-B7D2-77BF0D53CF78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/aerolinea-proyecto/docs/Caso3.xlsx
+++ b/aerolinea-proyecto/docs/Caso3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wired\OneDrive\Documentos\SEXTO SEMESTRE\INFRACOMP\CASO-3\aerolinea-proyecto\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88026EE4-EF9F-4E26-95CB-6EC48966710F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699D2ED9-A8C3-41C2-A855-8121AF6FAEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="600" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F943E978-111F-416B-BE95-5B8562A654F8}"/>
+    <workbookView xWindow="-28920" yWindow="600" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F943E978-111F-416B-BE95-5B8562A654F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Escenario 1" sheetId="1" r:id="rId1"/>
@@ -593,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -663,6 +663,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1940,7 +1941,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graficas!$A$5:$A$9</c:f>
+              <c:f>Graficas!$A$14:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1963,7 +1964,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graficas!$B$5:$B$9</c:f>
+              <c:f>Graficas!$B$14:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2259,7 +2260,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graficas!$A$31:$A$35</c:f>
+              <c:f>Graficas!$A$32:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2282,7 +2283,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graficas!$B$31:$B$35</c:f>
+              <c:f>Graficas!$B$32:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2578,7 +2579,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graficas!$A$50:$A$54</c:f>
+              <c:f>Graficas!$A$51:$A$55</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2601,7 +2602,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graficas!$B$50:$B$54</c:f>
+              <c:f>Graficas!$B$51:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2896,7 +2897,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graficas!$A$73:$A$74</c:f>
+              <c:f>Graficas!$A$74:$A$75</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2910,7 +2911,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graficas!$B$73:$B$74</c:f>
+              <c:f>Graficas!$B$74:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3207,7 +3208,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graficas!$A$90:$A$93</c:f>
+              <c:f>Graficas!$A$91:$A$94</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3227,7 +3228,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graficas!$B$90:$B$93</c:f>
+              <c:f>Graficas!$B$91:$B$94</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3270,7 +3271,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graficas!$A$90:$A$93</c:f>
+              <c:f>Graficas!$A$91:$A$94</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3290,7 +3291,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graficas!$C$90:$C$93</c:f>
+              <c:f>Graficas!$C$91:$C$94</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7549,9 +7550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>135589</xdr:colOff>
+      <xdr:colOff>131779</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>144416</xdr:rowOff>
+      <xdr:rowOff>136796</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7610,13 +7611,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>788670</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7646,13 +7647,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>12382</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>2857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>29527</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7682,13 +7683,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>12382</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>12381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7718,13 +7719,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>789622</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>25717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>625792</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>50482</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7754,13 +7755,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>783907</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>10477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>21907</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7789,15 +7790,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>62866</xdr:rowOff>
+      <xdr:colOff>120015</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>155904</xdr:rowOff>
+      <xdr:colOff>348615</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56843</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7827,8 +7828,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="66675" y="3320416"/>
-          <a:ext cx="5162550" cy="1359863"/>
+          <a:off x="120015" y="154305"/>
+          <a:ext cx="5391150" cy="1350338"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8149,8 +8150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE1CBD3-509E-4F4E-AF21-70C2EC4F312B}">
   <dimension ref="A2:F75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8238,7 +8239,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F6:F38" si="1">B7/1000</f>
+        <f t="shared" ref="F7:F38" si="1">B7/1000</f>
         <v>148.30000000000001</v>
       </c>
     </row>
@@ -9226,7 +9227,8 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9234,8 +9236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1652B877-D647-4228-BC2A-687609A4B2E6}">
   <dimension ref="A8:S79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE70" sqref="AE70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11019,7 +11021,7 @@
   <dimension ref="A5:M36"/>
   <sheetViews>
     <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11029,11 +11031,11 @@
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>113</v>
       </c>
@@ -11049,7 +11051,7 @@
       </c>
       <c r="F6" s="28"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -11067,7 +11069,7 @@
         <v>70253.333333333328</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -11080,12 +11082,13 @@
       <c r="E8" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="12">
-        <f>AVERAGE(C7:C36)</f>
-        <v>138736.66666666666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="18">
+        <f>AVERAGE(C8:C36)</f>
+        <v>78937.931034482754</v>
+      </c>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -11101,10 +11104,10 @@
       </c>
       <c r="E9" s="21">
         <f t="shared" ref="E9:E32" si="1">$F$8</f>
-        <v>138736.66666666666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78937.931034482754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -11120,10 +11123,10 @@
       </c>
       <c r="E10" s="21">
         <f t="shared" si="1"/>
-        <v>138736.66666666666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78937.931034482754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -11139,10 +11142,10 @@
       </c>
       <c r="E11" s="21">
         <f t="shared" si="1"/>
-        <v>138736.66666666666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78937.931034482754</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -11158,10 +11161,10 @@
       </c>
       <c r="E12" s="21">
         <f t="shared" si="1"/>
-        <v>138736.66666666666</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78937.931034482754</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -11177,10 +11180,10 @@
       </c>
       <c r="E13" s="21">
         <f t="shared" si="1"/>
-        <v>138736.66666666666</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78937.931034482754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -11196,10 +11199,10 @@
       </c>
       <c r="E14" s="21">
         <f t="shared" si="1"/>
-        <v>138736.66666666666</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78937.931034482754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -11215,10 +11218,10 @@
       </c>
       <c r="E15" s="21">
         <f t="shared" si="1"/>
-        <v>138736.66666666666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78937.931034482754</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -11234,7 +11237,7 @@
       </c>
       <c r="E16" s="21">
         <f t="shared" si="1"/>
-        <v>138736.66666666666</v>
+        <v>78937.931034482754</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -11253,7 +11256,7 @@
       </c>
       <c r="E17" s="21">
         <f t="shared" si="1"/>
-        <v>138736.66666666666</v>
+        <v>78937.931034482754</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -11272,7 +11275,7 @@
       </c>
       <c r="E18" s="21">
         <f t="shared" si="1"/>
-        <v>138736.66666666666</v>
+        <v>78937.931034482754</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -11291,7 +11294,7 @@
       </c>
       <c r="E19" s="21">
         <f t="shared" si="1"/>
-        <v>138736.66666666666</v>
+        <v>78937.931034482754</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -11310,7 +11313,7 @@
       </c>
       <c r="E20" s="21">
         <f t="shared" si="1"/>
-        <v>138736.66666666666</v>
+        <v>78937.931034482754</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -11329,7 +11332,7 @@
       </c>
       <c r="E21" s="21">
         <f t="shared" si="1"/>
-        <v>138736.66666666666</v>
+        <v>78937.931034482754</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -11348,7 +11351,7 @@
       </c>
       <c r="E22" s="21">
         <f t="shared" si="1"/>
-        <v>138736.66666666666</v>
+        <v>78937.931034482754</v>
       </c>
       <c r="M22" s="15"/>
     </row>
@@ -11368,7 +11371,7 @@
       </c>
       <c r="E23" s="21">
         <f t="shared" si="1"/>
-        <v>138736.66666666666</v>
+        <v>78937.931034482754</v>
       </c>
       <c r="M23" s="3"/>
     </row>
@@ -11388,7 +11391,7 @@
       </c>
       <c r="E24" s="21">
         <f t="shared" si="1"/>
-        <v>138736.66666666666</v>
+        <v>78937.931034482754</v>
       </c>
       <c r="M24" s="3"/>
     </row>
@@ -11408,7 +11411,7 @@
       </c>
       <c r="E25" s="21">
         <f t="shared" si="1"/>
-        <v>138736.66666666666</v>
+        <v>78937.931034482754</v>
       </c>
       <c r="M25" s="3"/>
     </row>
@@ -11428,7 +11431,7 @@
       </c>
       <c r="E26" s="21">
         <f t="shared" si="1"/>
-        <v>138736.66666666666</v>
+        <v>78937.931034482754</v>
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
@@ -11450,7 +11453,7 @@
       </c>
       <c r="E27" s="21">
         <f t="shared" si="1"/>
-        <v>138736.66666666666</v>
+        <v>78937.931034482754</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -11472,7 +11475,7 @@
       </c>
       <c r="E28" s="21">
         <f t="shared" si="1"/>
-        <v>138736.66666666666</v>
+        <v>78937.931034482754</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -11494,7 +11497,7 @@
       </c>
       <c r="E29" s="21">
         <f t="shared" si="1"/>
-        <v>138736.66666666666</v>
+        <v>78937.931034482754</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -11515,7 +11518,7 @@
       </c>
       <c r="E30" s="21">
         <f t="shared" si="1"/>
-        <v>138736.66666666666</v>
+        <v>78937.931034482754</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -11536,7 +11539,7 @@
       </c>
       <c r="E31" s="21">
         <f t="shared" si="1"/>
-        <v>138736.66666666666</v>
+        <v>78937.931034482754</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -11557,7 +11560,7 @@
       </c>
       <c r="E32" s="21">
         <f t="shared" si="1"/>
-        <v>138736.66666666666</v>
+        <v>78937.931034482754</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -11618,10 +11621,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6292505C-9C9B-49A2-9077-695645511339}">
-  <dimension ref="A2:C93"/>
+  <dimension ref="A11:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O75" sqref="O75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11630,298 +11633,298 @@
     <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B13" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B14" s="18">
         <v>2726900</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B15" s="18">
         <f>'Escenario 2'!B18</f>
         <v>578225</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B16" s="18">
         <f>'Escenario 2'!G30</f>
         <v>420806.25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B17" s="18">
         <f>'Escenario 2'!L45</f>
         <v>277622.58064516127</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B18" s="18">
         <f>'Escenario 2'!Q78</f>
         <v>198248.4375</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B31" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B32" s="18">
         <f>'Escenario 1'!B5</f>
         <v>516900</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B33" s="18">
         <f>'Escenario 2'!B19</f>
         <v>148675</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B34" s="18">
         <f>'Escenario 2'!G31</f>
         <v>161425</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B35" s="18">
         <f>'Escenario 2'!L46</f>
         <v>151774.19354838709</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B36" s="18">
         <f>'Escenario 2'!Q79</f>
         <v>156306.25</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="29" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B50" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B51" s="18">
         <f>'Escenario 1'!B39</f>
         <v>161793.75</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B51" s="18">
+      <c r="B52" s="18">
         <f>'Escenario 2'!B19</f>
         <v>148675</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B53" s="18">
         <f>'Escenario 2'!G31</f>
         <v>161425</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B54" s="18">
         <f>'Escenario 2'!L46</f>
         <v>151774.19354838709</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B55" s="18">
         <f>'Escenario 2'!Q79</f>
         <v>156306.25</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="29" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="B69" s="29"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="s">
+      <c r="B70" s="29"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B73" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="12" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B73" s="18">
+      <c r="B74" s="18">
         <f>2157700/34</f>
         <v>63461.76470588235</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="12" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B74" s="12">
+      <c r="B75" s="12">
         <f>4089401/34</f>
         <v>120276.5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="30" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="13" t="s">
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B90" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C90" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="12" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B90" s="22">
+      <c r="B91" s="22">
         <f>354500/4</f>
         <v>88625</v>
       </c>
-      <c r="C90" s="12">
+      <c r="C91" s="12">
         <f>1090799/4</f>
         <v>272699.75</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="12" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B91" s="17">
+      <c r="B92" s="17">
         <f>1060501/16</f>
         <v>66281.3125</v>
       </c>
-      <c r="C91" s="17">
+      <c r="C92" s="17">
         <f>1354303/16</f>
         <v>84643.9375</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="12" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B92" s="17">
+      <c r="B93" s="17">
         <f>1949500/32</f>
         <v>60921.875</v>
       </c>
-      <c r="C92" s="17">
+      <c r="C93" s="17">
         <f>2737398/32</f>
         <v>85543.6875</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="12" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B93" s="17">
+      <c r="B94" s="17">
         <f>2961097/64</f>
         <v>46267.140625</v>
       </c>
-      <c r="C93" s="17">
+      <c r="C94" s="17">
         <f>4275499/64</f>
         <v>66804.671875</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A89:C89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11930,6 +11933,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="5efcfc4f-29bb-494d-9a76-b0329a59025e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001FC1E8C1DD8F5B41A47A8ECFEE6084B1" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="aec83e8e70c29a555afea3e98ce2ff32">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5efcfc4f-29bb-494d-9a76-b0329a59025e" xmlns:ns4="35d47d0e-5fff-46fc-9dc4-f42efd9cfec7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1da1c3c6b0a90c2102acd12d295b5aab" ns3:_="" ns4:_="">
     <xsd:import namespace="5efcfc4f-29bb-494d-9a76-b0329a59025e"/>
@@ -12150,38 +12170,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="5efcfc4f-29bb-494d-9a76-b0329a59025e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E9925EC-6FDC-4980-9706-164E525FB43E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17987EFD-1A28-487D-B7D2-77BF0D53CF78}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5efcfc4f-29bb-494d-9a76-b0329a59025e"/>
-    <ds:schemaRef ds:uri="35d47d0e-5fff-46fc-9dc4-f42efd9cfec7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12204,9 +12196,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17987EFD-1A28-487D-B7D2-77BF0D53CF78}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E9925EC-6FDC-4980-9706-164E525FB43E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5efcfc4f-29bb-494d-9a76-b0329a59025e"/>
+    <ds:schemaRef ds:uri="35d47d0e-5fff-46fc-9dc4-f42efd9cfec7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>